--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Btc-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Btc-Egfr.xlsx
@@ -540,10 +540,10 @@
         <v>0.687972</v>
       </c>
       <c r="I2">
-        <v>0.1345276800989288</v>
+        <v>0.7783932765807232</v>
       </c>
       <c r="J2">
-        <v>0.1345276800989288</v>
+        <v>0.7783932765807231</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N2">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q2">
-        <v>0.2997509292266667</v>
+        <v>0.098321059732</v>
       </c>
       <c r="R2">
-        <v>2.69775836304</v>
+        <v>0.884889537588</v>
       </c>
       <c r="S2">
-        <v>0.001690021678287609</v>
+        <v>0.003207372569739222</v>
       </c>
       <c r="T2">
-        <v>0.001690021678287609</v>
+        <v>0.003207372569739221</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.687972</v>
       </c>
       <c r="I3">
-        <v>0.1345276800989288</v>
+        <v>0.7783932765807232</v>
       </c>
       <c r="J3">
-        <v>0.1345276800989288</v>
+        <v>0.7783932765807231</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N3">
         <v>240.678711</v>
       </c>
       <c r="O3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q3">
         <v>18.397801573788</v>
@@ -632,10 +632,10 @@
         <v>165.580214164092</v>
       </c>
       <c r="S3">
-        <v>0.1037283973489331</v>
+        <v>0.6001624094788668</v>
       </c>
       <c r="T3">
-        <v>0.1037283973489331</v>
+        <v>0.6001624094788667</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.687972</v>
       </c>
       <c r="I4">
-        <v>0.1345276800989288</v>
+        <v>0.7783932765807232</v>
       </c>
       <c r="J4">
-        <v>0.1345276800989288</v>
+        <v>0.7783932765807231</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N4">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q4">
-        <v>5.162968124874667</v>
+        <v>5.365293581030667</v>
       </c>
       <c r="R4">
-        <v>46.466713123872</v>
+        <v>48.287642229276</v>
       </c>
       <c r="S4">
-        <v>0.02910926107170802</v>
+        <v>0.1750234945321173</v>
       </c>
       <c r="T4">
-        <v>0.02910926107170803</v>
+        <v>0.1750234945321173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.475336333333334</v>
+        <v>0.065288</v>
       </c>
       <c r="H5">
-        <v>4.426009000000001</v>
+        <v>0.195864</v>
       </c>
       <c r="I5">
-        <v>0.8654723199010712</v>
+        <v>0.2216067234192769</v>
       </c>
       <c r="J5">
-        <v>0.8654723199010712</v>
+        <v>0.2216067234192769</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N5">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q5">
-        <v>1.928421956875556</v>
+        <v>0.027991772984</v>
       </c>
       <c r="R5">
-        <v>17.35579761188</v>
+        <v>0.251925956856</v>
       </c>
       <c r="S5">
-        <v>0.0108726098711809</v>
+        <v>0.0009131313788924592</v>
       </c>
       <c r="T5">
-        <v>0.0108726098711809</v>
+        <v>0.000913131378892459</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.475336333333334</v>
+        <v>0.065288</v>
       </c>
       <c r="H6">
-        <v>4.426009000000001</v>
+        <v>0.195864</v>
       </c>
       <c r="I6">
-        <v>0.8654723199010712</v>
+        <v>0.2216067234192769</v>
       </c>
       <c r="J6">
-        <v>0.8654723199010712</v>
+        <v>0.2216067234192769</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N6">
         <v>240.678711</v>
       </c>
       <c r="O6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q6">
-        <v>118.360682332711</v>
+        <v>5.237810561255999</v>
       </c>
       <c r="R6">
-        <v>1065.246140994399</v>
+        <v>47.14029505130399</v>
       </c>
       <c r="S6">
-        <v>0.6673277694760169</v>
+        <v>0.1708648174201403</v>
       </c>
       <c r="T6">
-        <v>0.6673277694760169</v>
+        <v>0.1708648174201403</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>1.475336333333334</v>
+        <v>0.065288</v>
       </c>
       <c r="H7">
-        <v>4.426009000000001</v>
+        <v>0.195864</v>
       </c>
       <c r="I7">
-        <v>0.8654723199010712</v>
+        <v>0.2216067234192769</v>
       </c>
       <c r="J7">
-        <v>0.8654723199010712</v>
+        <v>0.2216067234192769</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N7">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q7">
-        <v>33.2155136944649</v>
+        <v>1.527486383101333</v>
       </c>
       <c r="R7">
-        <v>298.9396232501841</v>
+        <v>13.747377447912</v>
       </c>
       <c r="S7">
-        <v>0.1872719405538734</v>
+        <v>0.04982877462024416</v>
       </c>
       <c r="T7">
-        <v>0.1872719405538734</v>
+        <v>0.04982877462024416</v>
       </c>
     </row>
   </sheetData>
